--- a/src/main/resources/UsuariosRegistro.xlsx
+++ b/src/main/resources/UsuariosRegistro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABC75E1-144C-485B-B1EB-C704262206E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A76C64-77BC-4D4A-A99A-531A3B136CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{405C0C00-7860-4C6A-BB15-13C69BDBFB43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>FirstName</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>martin</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>max17</t>
+  </si>
+  <si>
+    <t>max1171120004@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F90D1E-1F5F-4065-9BE6-7514DA27001E}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,52 +644,69 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>3105555555</v>
+        <v>3108888888</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>3106666666</v>
+        <v>3105555555</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>3106666666</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>3107777777</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -691,9 +717,10 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{BE4273B4-0D3C-4236-9A02-C9A8E408B218}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{4DB997F7-E37E-4523-9933-8513B5E6BDDF}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{81CDF7B4-D277-4C4B-92C4-0C1F16FF8CD3}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{2C3B3042-3D5F-474F-B8CA-EF66972C7CF5}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{979635E6-935D-40BA-8D52-4389624A0FD7}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{2382CE20-0439-48D1-B262-8452D9A6FC0A}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{2C3B3042-3D5F-474F-B8CA-EF66972C7CF5}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{979635E6-935D-40BA-8D52-4389624A0FD7}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{2382CE20-0439-48D1-B262-8452D9A6FC0A}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{F9CC8F6E-7E3F-47F4-AB08-5F778FCB56D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/UsuariosRegistro.xlsx
+++ b/src/main/resources/UsuariosRegistro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\Universidad_6\Calidad\STORE_2511\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A76C64-77BC-4D4A-A99A-531A3B136CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C4A560-868B-4E92-A95B-52EF6018DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{405C0C00-7860-4C6A-BB15-13C69BDBFB43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Natalia</t>
-  </si>
-  <si>
     <t>Giraldo</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Amador</t>
   </si>
   <si>
-    <t>marianela@gmail.com</t>
-  </si>
-  <si>
     <t>marianela</t>
   </si>
   <si>
@@ -101,52 +95,25 @@
     <t>stiven@gmail.com</t>
   </si>
   <si>
-    <t>stiven</t>
-  </si>
-  <si>
-    <t>Bylen</t>
-  </si>
-  <si>
-    <t>Naspiran</t>
-  </si>
-  <si>
-    <t>bylen@gmail.com</t>
-  </si>
-  <si>
-    <t>bylen</t>
-  </si>
-  <si>
-    <t>Valerie</t>
-  </si>
-  <si>
     <t>Olave</t>
   </si>
   <si>
-    <t>valerie@gmail.com</t>
-  </si>
-  <si>
-    <t>valerie</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
-    <t>martin@gmail.com</t>
-  </si>
-  <si>
-    <t>martin</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
     <t>max17</t>
   </si>
   <si>
-    <t>max1171120004@gmail.com</t>
+    <t>expected_result</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>max117112000411@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -529,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F90D1E-1F5F-4065-9BE6-7514DA27001E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +507,7 @@
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,171 +523,135 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>3100000000</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>3101111111</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4">
         <v>3102222222</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>3103333333</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>3104444444</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>3108888888</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>3105555555</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>3106666666</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>3107777777</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{340D4E24-FF93-4066-988E-54CD7F57BCEB}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{6B30DCC2-E68E-4C78-A86F-C53076899329}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{BE4273B4-0D3C-4236-9A02-C9A8E408B218}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{4DB997F7-E37E-4523-9933-8513B5E6BDDF}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{81CDF7B4-D277-4C4B-92C4-0C1F16FF8CD3}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{2C3B3042-3D5F-474F-B8CA-EF66972C7CF5}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{979635E6-935D-40BA-8D52-4389624A0FD7}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{2382CE20-0439-48D1-B262-8452D9A6FC0A}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{F9CC8F6E-7E3F-47F4-AB08-5F778FCB56D0}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{4DB997F7-E37E-4523-9933-8513B5E6BDDF}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{81CDF7B4-D277-4C4B-92C4-0C1F16FF8CD3}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{F9CC8F6E-7E3F-47F4-AB08-5F778FCB56D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
